--- a/Collections/Испания/Испания погодовка 1934-2001.xlsx
+++ b/Collections/Испания/Испания погодовка 1934-2001.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="5 cêntimo" sheetId="3" r:id="rId1"/>
@@ -2253,14 +2253,15 @@
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="151">
+  <dxfs count="148">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3422,31 +3423,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3476,9 +3452,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="150"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="149" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="148"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3787,10 +3763,10 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
@@ -3799,7 +3775,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3813,7 +3789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1937</v>
       </c>
@@ -3831,7 +3807,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1938</v>
       </c>
@@ -3849,7 +3825,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1939</v>
       </c>
@@ -3867,7 +3843,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1940</v>
       </c>
@@ -3885,7 +3861,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1941</v>
       </c>
@@ -3903,7 +3879,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1942</v>
       </c>
@@ -3921,7 +3897,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1943</v>
       </c>
@@ -3939,7 +3915,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1944</v>
       </c>
@@ -3957,7 +3933,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1945</v>
       </c>
@@ -3975,7 +3951,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1946</v>
       </c>
@@ -3993,7 +3969,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1947</v>
       </c>
@@ -4011,7 +3987,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1948</v>
       </c>
@@ -4029,7 +4005,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1949</v>
       </c>
@@ -4047,7 +4023,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1950</v>
       </c>
@@ -4065,7 +4041,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1951</v>
       </c>
@@ -4083,7 +4059,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1952</v>
       </c>
@@ -4101,7 +4077,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1953</v>
       </c>
@@ -5196,7 +5172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="66" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5213,7 +5189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="65" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5230,7 +5206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="64" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5247,7 +5223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D35">
-    <cfRule type="containsText" dxfId="63" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5264,7 +5240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D10">
-    <cfRule type="containsText" dxfId="62" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5281,7 +5257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D13">
-    <cfRule type="containsText" dxfId="61" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5298,7 +5274,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5315,7 +5291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5332,7 +5308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D22">
-    <cfRule type="containsText" dxfId="58" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5349,7 +5325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D30">
-    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5366,7 +5342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5383,7 +5359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5400,7 +5376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5417,7 +5393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D50">
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5434,7 +5410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6370,7 +6346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D14">
-    <cfRule type="containsText" dxfId="51" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6387,7 +6363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D19">
-    <cfRule type="containsText" dxfId="50" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6404,7 +6380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="49" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6421,7 +6397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6438,7 +6414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="47" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6455,7 +6431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="46" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6472,7 +6448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="45" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6489,7 +6465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6506,7 +6482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6523,7 +6499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6540,7 +6516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6557,7 +6533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6574,7 +6550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D42">
-    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6591,7 +6567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D45">
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6608,7 +6584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D48">
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6625,7 +6601,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6642,7 +6618,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D27">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6659,7 +6635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D30">
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6676,7 +6652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6693,7 +6669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6710,7 +6686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6727,7 +6703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6745,7 +6721,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7488,7 +7464,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7505,7 +7481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="28" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7522,7 +7498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D12">
-    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7539,7 +7515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7556,7 +7532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7573,7 +7549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7590,7 +7566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7607,7 +7583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7624,7 +7600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7641,7 +7617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7658,7 +7634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7675,7 +7651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7692,7 +7668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7709,7 +7685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7726,7 +7702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D23">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7743,7 +7719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D27">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7760,7 +7736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D31">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7777,7 +7753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D34">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7794,7 +7770,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8180,7 +8156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8197,7 +8173,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8214,7 +8190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8231,7 +8207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8248,7 +8224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8265,7 +8241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D8">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8282,7 +8258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D16">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8296,7 +8272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8610,12 +8586,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5 D8:D16">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8632,7 +8608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8846,7 +8822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9364,7 +9340,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="137" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9381,7 +9357,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="136" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9398,7 +9374,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="135" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9415,7 +9391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="134" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9432,7 +9408,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D16">
-    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9449,7 +9425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D22">
-    <cfRule type="containsText" dxfId="132" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9466,7 +9442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="containsText" dxfId="131" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9483,7 +9459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="130" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9500,7 +9476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="129" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9517,7 +9493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="128" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9534,7 +9510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="127" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9551,7 +9527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="126" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9699,7 +9675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="125" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9716,7 +9692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="124" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9733,7 +9709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9750,7 +9726,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9767,7 +9743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="121" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10688,7 +10664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="120" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10705,7 +10681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D18">
-    <cfRule type="containsText" dxfId="119" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10722,7 +10698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="containsText" dxfId="118" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10739,7 +10715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D30">
-    <cfRule type="containsText" dxfId="117" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10756,7 +10732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="containsText" dxfId="116" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10773,7 +10749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="115" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10790,7 +10766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="containsText" dxfId="114" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10807,7 +10783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="113" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10824,7 +10800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsText" dxfId="112" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10841,7 +10817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="containsText" dxfId="111" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10858,7 +10834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="110" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10875,7 +10851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="109" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10892,7 +10868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="containsText" dxfId="108" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10909,7 +10885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D42">
-    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10926,7 +10902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D38">
-    <cfRule type="containsText" dxfId="106" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10943,7 +10919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D34">
-    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10960,7 +10936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="104" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10977,7 +10953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D23">
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10994,7 +10970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11011,7 +10987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11025,11 +11001,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomRight" activeCell="P36" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12476,7 +12452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsText" dxfId="100" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12493,7 +12469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="containsText" dxfId="98" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12510,7 +12486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D15">
-    <cfRule type="containsText" dxfId="97" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12527,7 +12503,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="containsText" dxfId="96" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12544,7 +12520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D28">
-    <cfRule type="containsText" dxfId="95" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12561,7 +12537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="94" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12578,7 +12554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="93" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12595,7 +12571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="92" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12612,7 +12588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D23">
-    <cfRule type="containsText" dxfId="91" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12629,7 +12605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="90" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12646,7 +12622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D56">
-    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12663,7 +12639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:D76">
-    <cfRule type="containsText" dxfId="88" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12680,7 +12656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12792,7 +12768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12809,7 +12785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12826,7 +12802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13207,7 +13183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13224,7 +13200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13241,7 +13217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D19">
-    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13258,7 +13234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="80" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14359,7 +14335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D10">
-    <cfRule type="containsText" dxfId="79" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14376,7 +14352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14393,7 +14369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14410,7 +14386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14427,7 +14403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14444,7 +14420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14461,7 +14437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14478,7 +14454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D40">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14495,7 +14471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D58">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14571,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="str">
-        <f t="shared" ref="E3:E8" si="0">IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <f t="shared" ref="E3:E4" si="0">IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
@@ -14895,7 +14871,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D10">
-    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14912,7 +14888,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14929,7 +14905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D19">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14946,7 +14922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
